--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4984984984984985</v>
+        <v>0.4894894894894895</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08765523214173383</v>
+        <v>0.08406311131990132</v>
       </c>
       <c r="J2" t="n">
-        <v>1158.018057371264</v>
+        <v>1118.216192520368</v>
       </c>
       <c r="K2" t="n">
-        <v>1869451.549028539</v>
+        <v>1788447.707903908</v>
       </c>
       <c r="L2" t="n">
-        <v>1367.278884876286</v>
+        <v>1337.328571407905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6524168521502073</v>
+        <v>0.6674777239340495</v>
       </c>
     </row>
   </sheetData>
